--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>本支店コード</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +586,7 @@
         <v>5000</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -609,30 +609,30 @@
         <v>15000</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>20221103</v>
+        <v>20221101</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F4">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G4">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,10 +652,56 @@
         <v>54300</v>
       </c>
       <c r="G5">
+        <v>70300</v>
+      </c>
+      <c r="H5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>20221102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1501</v>
+      </c>
+      <c r="F6">
+        <v>2500</v>
+      </c>
+      <c r="G6">
+        <v>72800</v>
+      </c>
+      <c r="H6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>20221103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1502</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7">
         <v>75800</v>
       </c>
-      <c r="H5">
-        <v>13</v>
+      <c r="H7">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="母集団" sheetId="1" r:id="rId1"/>
     <sheet name="サンプリング結果" sheetId="2" r:id="rId2"/>
+    <sheet name="サンプリングパラメータ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>本支店コード</t>
   </si>
@@ -42,6 +43,27 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>母集団合計</t>
+  </si>
+  <si>
+    <t>手続実施上の重要性</t>
+  </si>
+  <si>
+    <t>リスク</t>
+  </si>
+  <si>
+    <t>内部統制</t>
+  </si>
+  <si>
+    <t>random_state</t>
+  </si>
+  <si>
+    <t>RMM-L</t>
+  </si>
+  <si>
+    <t>依拠する</t>
   </si>
 </sst>
 </file>
@@ -534,7 +556,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,140 +590,101 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>20221104</v>
+        <v>20221101</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="F2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>20221105</v>
+        <v>20221106</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="F3">
-        <v>10000</v>
+        <v>54300</v>
       </c>
       <c r="G3">
-        <v>15000</v>
+        <v>75800</v>
       </c>
       <c r="H3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>20221101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1500</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4">
-        <v>16000</v>
-      </c>
-      <c r="H4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>75800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>64532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>20221106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>1505</v>
-      </c>
-      <c r="F5">
-        <v>54300</v>
-      </c>
-      <c r="G5">
-        <v>70300</v>
-      </c>
-      <c r="H5">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>20221102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>1501</v>
-      </c>
-      <c r="F6">
-        <v>2500</v>
-      </c>
-      <c r="G6">
-        <v>72800</v>
-      </c>
-      <c r="H6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>20221103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>1502</v>
-      </c>
-      <c r="F7">
-        <v>3000</v>
-      </c>
-      <c r="G7">
-        <v>75800</v>
-      </c>
-      <c r="H7">
-        <v>124</v>
+        <v>4532</v>
       </c>
     </row>
   </sheetData>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>本支店コード</t>
   </si>
@@ -556,7 +556,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -590,22 +590,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>20221101</v>
+        <v>20221104</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -613,25 +613,71 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>20221105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1504</v>
+      </c>
+      <c r="F3">
+        <v>10000</v>
+      </c>
+      <c r="G3">
+        <v>15000</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>20221106</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>1505</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>54300</v>
       </c>
-      <c r="G3">
+      <c r="G4">
+        <v>70300</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>20221103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1502</v>
+      </c>
+      <c r="F5">
+        <v>3000</v>
+      </c>
+      <c r="G5">
         <v>75800</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="H5">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>64532</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -684,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4532</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>本支店コード</t>
   </si>
@@ -556,7 +556,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -590,22 +590,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>20221104</v>
+        <v>20221105</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="F2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -613,71 +613,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>20221105</v>
+        <v>20221106</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="F3">
-        <v>10000</v>
+        <v>54300</v>
       </c>
       <c r="G3">
-        <v>15000</v>
+        <v>69800</v>
       </c>
       <c r="H3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>20221106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1505</v>
-      </c>
-      <c r="F4">
-        <v>54300</v>
-      </c>
-      <c r="G4">
-        <v>70300</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>20221103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>1502</v>
-      </c>
-      <c r="F5">
-        <v>3000</v>
-      </c>
-      <c r="G5">
-        <v>75800</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1234</v>
+        <v>5342</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -730,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1234</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>本支店コード</t>
   </si>
@@ -421,13 +424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,106 +449,127 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>20221106</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>1505</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>54300</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>20221105</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
         <v>1504</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>20221104</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
         <v>1503</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>20221103</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>1502</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>20221102</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
         <v>1501</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>20221101</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
         <v>1500</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1000</v>
       </c>
     </row>
@@ -556,13 +580,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,56 +606,65 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>20221105</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>1504</v>
-      </c>
-      <c r="F2">
-        <v>10000</v>
       </c>
       <c r="G2">
         <v>10000</v>
       </c>
       <c r="H2">
+        <v>10000</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>20221106</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>1505</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>20221101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>54300</v>
+        <v>1500</v>
       </c>
       <c r="G3">
-        <v>69800</v>
+        <v>1000</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>75800</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +682,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>75800</v>
@@ -657,34 +690,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>5342</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>123</v>
+        <v>7593032</v>
       </c>
     </row>
   </sheetData>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -617,25 +617,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>20221105</v>
+        <v>20221103</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="G2">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="H2">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -643,22 +643,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>20221101</v>
+        <v>20221104</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H3">
         <v>75800</v>
@@ -693,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>534322</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -717,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>7593032</v>
+        <v>34324321</v>
       </c>
     </row>
   </sheetData>
